--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2354827.050840721</v>
+        <v>2459006.685291795</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>372.5379979747206</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>302.5072181853014</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>63.43291862328049</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>64.85024834265833</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>191.2490250244974</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>91.61745183476873</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>146.3371029472783</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.30305803407926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>77.42639794035675</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20.65225793014686</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.4756842509222</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>206.20207519321</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.4912798484933</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>238.4715729346783</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722635</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>212.3267021497103</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>39.1931427411096</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>23.6255456814127</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>212.6751468632156</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>145.9348656155991</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0635245304618</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>23.08134457786378</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>113.0992099793456</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>218.8658348647373</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8253826161909023</v>
+        <v>99.76189317295177</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4135,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>101.9434035445953</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.1153231220618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.419770374778</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>1643.936424607986</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1285.670726001236</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>899.8824734029915</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.158942414711</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.158942414711</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.019610438899</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.615504601943</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>229.3430949700586</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.2639694321828</v>
+        <v>410.9915598002983</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495404</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495404</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.748203495404</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>716.7622987057964</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>301.6898485507929</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>383.3613929424835</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X7" t="n">
-        <v>438.2129667142807</v>
+        <v>359.619250712236</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.3613929424835</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4802,10 +4804,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875185</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899373</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>649.4080837454732</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>649.4080837454732</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>499.2914443331374</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>499.2914443331374</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>352.401496835227</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>184.698660209946</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,10 +5038,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,34 +5050,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5084,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>935.9992711742725</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>715.2066920307424</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,46 +5281,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5518,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615668</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334541</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667834</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694719</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740627</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385793</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913448</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913448</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>2876.560776129207</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>3473.939263755759</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>4101.537227310366</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>4101.537227310366</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023712</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301208</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022982</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566167</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334424</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.14661340069</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635736</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1736.580703808814</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>964.4894946679489</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661313</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1494.787041406605</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>988.1395539230185</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>819.2033709951116</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6142,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1618.570148794806</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1390.580597896788</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1169.788018753258</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>701.4712640439268</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.653590320296</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1760.578363664494</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1505.893875458607</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1216.476705421646</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>988.4871545236284</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6782,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.176094240981</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.239911313074</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.123271900738</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.210178318345</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.61713821475</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.61713821475</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y34" t="n">
-        <v>3523.82455907122</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,22 +7256,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,19 +7496,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7727,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7834,22 +7836,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>19.5075801958271</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.0317184880977</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.71290145456587</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.257951202384447</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>109.4223302771028</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>5.909506488879202</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.47058471168913</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3575234924693973</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>144.1654765207641</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>173.4237883572454</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>67.31863952450689</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6085800303783</v>
+        <v>46.6720694736174</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>115.4620467826929</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="10">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26355,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.382613324510046e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,37 +26420,37 @@
         <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687956</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687958</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687964</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26479,16 +26481,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482187</v>
+        <v>-893968.0587482189</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793744</v>
+        <v>434776.6869793743</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216121</v>
+        <v>183566.983121613</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289685</v>
+        <v>508979.4449289677</v>
       </c>
       <c r="G6" t="n">
+        <v>508979.4449289683</v>
+      </c>
+      <c r="H6" t="n">
+        <v>508979.4449289682</v>
+      </c>
+      <c r="I6" t="n">
         <v>508979.444928968</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>291448.2425316912</v>
+      </c>
+      <c r="K6" t="n">
         <v>508979.444928968</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>508979.4449289679</v>
       </c>
-      <c r="J6" t="n">
-        <v>291448.2425316907</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>423924.4169934564</v>
+      </c>
+      <c r="N6" t="n">
+        <v>508979.444928968</v>
+      </c>
+      <c r="O6" t="n">
         <v>508979.4449289682</v>
       </c>
-      <c r="L6" t="n">
-        <v>508979.4449289682</v>
-      </c>
-      <c r="M6" t="n">
-        <v>423924.416993456</v>
-      </c>
-      <c r="N6" t="n">
-        <v>508979.4449289681</v>
-      </c>
-      <c r="O6" t="n">
-        <v>508979.4449289681</v>
-      </c>
       <c r="P6" t="n">
-        <v>508979.4449289681</v>
+        <v>508979.4449289679</v>
       </c>
     </row>
   </sheetData>
@@ -26790,37 +26792,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>34.33804776699088</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>46.73375053211157</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>103.8139024753473</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>80.57079968027291</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>103.3587393628231</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>159.3777201241332</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>79.3725524417589</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.2815953180155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>287.9210818608662</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>124.1027569841739</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.10896910117256</v>
       </c>
     </row>
     <row r="11">
@@ -28518,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.676483530079573e-14</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28576,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.987395659377728e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.36207223319011e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.761884095931661e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31607,10 +31609,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861822</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>237.3557891543625</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>493.6049778318521</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496626</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>396.9700886943655</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>491.5977325265315</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286707</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,25 +34447,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35255,10 +35257,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899048</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>94.75954470991805</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>359.6305704175218</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723472</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459006.685291795</v>
+        <v>2454994.075277802</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>233.6876255317278</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.5379979747206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.6900099114041</v>
       </c>
       <c r="F4" t="n">
-        <v>64.85024834265833</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>51.7397449798482</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>91.61745183476873</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>124.4808309317252</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>146.3371029472783</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.81275980261439</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>57.89934023899443</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.4756842509222</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.4467250013042</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>206.20207519321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>101.4912798484933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453149</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>238.4715729346783</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.3267021497103</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>39.1931427411096</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.6751468632156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>145.9348656155991</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>70.04554881124375</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>113.0992099793456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>218.8658348647373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.76189317295177</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>101.9434035445953</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.898941548398</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1643.936424607986</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.670726001236</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>899.8824734029915</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548398</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.3430949700586</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3430949700586</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D4" t="n">
-        <v>229.3430949700586</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E4" t="n">
-        <v>229.3430949700586</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>410.9915598002983</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>873.4274344054643</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3122.772272495085</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3122.772272495085</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2770.00361722497</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2396.53785896389</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.619250712236</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C7" t="n">
-        <v>359.619250712236</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>192.2503294945321</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4752,25 +4752,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W7" t="n">
-        <v>507.4345062145372</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X7" t="n">
-        <v>359.619250712236</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.619250712236</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>535.9822032813813</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>124.9962984917738</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810555</v>
@@ -4822,19 +4822,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4843,13 +4843,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458111</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5059,10 +5059,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.5582272005026</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>465.5411824076624</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>935.9992711742725</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.2066920307424</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061504</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648817</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913448</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913448</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129207</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755759</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4101.537227310366</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4101.537227310366</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.8410298377091</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.580703808814</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.896215602927</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.479045565966</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>964.4894946679489</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>964.4894946679489</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5843,13 +5843,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,73 +5886,73 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304622</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406605</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
         <v>1280.315625093766</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191927</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191927</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438164</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998423</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.1395539230185</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>819.2033709951116</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487569</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831766</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.987318831766</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.570148794806</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.580597896788</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>1169.788018753258</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6250,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>701.4712640439268</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2049.653590320296</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1760.578363664494</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1505.893875458607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1216.476705421646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>988.4871545236284</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.530292372933</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>853.594109445026</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>703.4774700326902</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>555.5643764502971</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1942.378057281681</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1652.96088724472</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1424.971336346703</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.178757203173</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6946,25 +6946,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.459739407056</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>650.3841300523919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2161.135114341634</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1872.059887685832</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1617.375399479945</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.07741329096461</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5075801958271</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>185.0317184880977</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.70888054695396</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.71290145456587</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.257951202384447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>109.4223302771028</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.909506488879202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>71.47058471168913</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>75.3754992116875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>173.4237883572454</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>67.31863952450689</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>46.6720694736174</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>115.4620467826929</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448201</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>4.382613324510046e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972771</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405254</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26450,7 +26450,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26481,16 +26481,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482189</v>
+        <v>-893968.0587482185</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793743</v>
+        <v>434776.6869793744</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.983121613</v>
+        <v>183219.6038672558</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289677</v>
+        <v>508632.065674611</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289683</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.4449289682</v>
+        <v>508632.065674611</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="J6" t="n">
-        <v>291448.2425316912</v>
+        <v>291100.8632773336</v>
       </c>
       <c r="K6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.065674611</v>
       </c>
       <c r="L6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.065674611</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934564</v>
+        <v>423577.0377390993</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.444928968</v>
+        <v>508632.065674611</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.4449289682</v>
+        <v>508632.0656746111</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.4449289679</v>
+        <v>508632.0656746111</v>
       </c>
     </row>
   </sheetData>
@@ -26792,37 +26792,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>149.0462161317528</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.33804776699088</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="F4" t="n">
-        <v>80.57079968027291</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>355.1363007618633</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>159.3777201241332</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20.94021709120605</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,22 +27824,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.3725524417589</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.9210818608662</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>353.022385414459</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.10896910117256</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.676483530079573e-14</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.987395659377728e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.36207223319011e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.761884095931661e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,10 +31600,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31612,28 +31612,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
-        <v>530.4152909475304</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861822</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>493.6049778318521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496626</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>396.9700886943655</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>491.5977325265315</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.1165249313363</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35260,19 +35260,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417378</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899048</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>359.6305704175218</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663293</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820871</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.13475084531481</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454994.075277802</v>
+        <v>2456754.605580586</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265927.202114932</v>
+        <v>9265927.202114934</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.6876255317278</v>
+        <v>69.23266981762882</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189207</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>30.93447513354236</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.6900099114041</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7307299422345</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>51.7397449798482</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>124.4808309317252</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>100.2063103874222</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>57.89934023899443</v>
+        <v>179.0944876018792</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044429</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.4467250013042</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>182.4389902550896</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>216.4795114578124</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>125.8152577453149</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>33.82891891787128</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>47.84205650381972</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>80.10107535865887</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0.2811815126418742</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940025</v>
+        <v>2415.099428388742</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879448</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600379</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477022</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.17820394412</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.215687003709</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1259.215687003709</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>873.4274344054643</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008242</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.3669689068678</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="C7" t="n">
-        <v>342.3669689068678</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="D7" t="n">
-        <v>192.2503294945321</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>192.2503294945321</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4755,22 +4755,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438285</v>
+        <v>819.6685104773544</v>
       </c>
       <c r="W7" t="n">
-        <v>342.3669689068678</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="X7" t="n">
-        <v>342.3669689068678</v>
+        <v>530.2513404403937</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.3669689068678</v>
+        <v>530.2513404403937</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796256</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796256</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E8" t="n">
-        <v>535.9822032813813</v>
+        <v>658.401544051972</v>
       </c>
       <c r="F8" t="n">
-        <v>124.9962984917738</v>
+        <v>247.4156392623644</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="11">
@@ -5038,28 +5038,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4311299055728</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>612.4311299055728</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>465.5411824076624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1249.419557310345</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1021.430006412328</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>800.6374272687974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5323,7 +5323,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>741.8431516380849</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>572.906968710178</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>422.7903292978423</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925216</v>
+        <v>274.8772357154492</v>
       </c>
       <c r="F19" t="n">
-        <v>444.7013164925216</v>
+        <v>127.9872882175388</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>127.9872882175388</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5679,46 +5679,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>923.4916164683247</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,22 +6010,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,7 +6244,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>174.7268401779303</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.07741329096461</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>104.0840080815014</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.70888054695396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>106.4657939283526</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>180.5487903941885</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>60.19363748756501</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.09406519747981</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580515</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580516</v>
+        <v>801606.5898580517</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405263</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687975</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687973</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482185</v>
+        <v>-893968.0587482182</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793733</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793744</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="E6" t="n">
-        <v>183219.6038672558</v>
+        <v>183532.2451961769</v>
       </c>
       <c r="F6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="G6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035325</v>
       </c>
       <c r="H6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="I6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="J6" t="n">
-        <v>291100.8632773336</v>
+        <v>291413.5046062546</v>
       </c>
       <c r="K6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="L6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="M6" t="n">
-        <v>423577.0377390993</v>
+        <v>423889.6790680204</v>
       </c>
       <c r="N6" t="n">
-        <v>508632.065674611</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="O6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="P6" t="n">
-        <v>508632.0656746111</v>
+        <v>508944.7070035322</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.0462161317528</v>
+        <v>313.5011718458518</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.8975050483949</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.54216182877309</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>355.1363007618633</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.94021709120605</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>119.342638888747</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>353.022385414459</v>
+        <v>231.8272380515742</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>94.15744254776807</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28751,7 +28751,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34871,13 +34871,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191277</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
